--- a/public/result/fc2010/result/result4.xlsx
+++ b/public/result/fc2010/result/result4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiko\Desktop\emiko\FC中原\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiko\Desktop\emiko\work\fcnakahara_site\public\result\fc2010\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE3B797-BA33-4C9F-AD6D-D29113DB827D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1654E754-233A-4128-9E81-6D0D658B22F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77D90D46-8B3C-421B-85EA-23A85B4138FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="123">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -329,26 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中の島1</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中の島2</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MIP1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,6 +614,116 @@
     <rPh sb="5" eb="6">
       <t>ザカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンキッズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菅生SC</t>
+    <rPh sb="0" eb="2">
+      <t>スガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひなた、ひなた、こうた、そうた、こうた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうた、けいご、こうた、こうた、こうた、はるき、そうた、そうた、けいご、はるき、みなと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土橋レッド</t>
+    <rPh sb="0" eb="2">
+      <t>ツチハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひなた、ひなた、りんたろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よりともSC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC鷹</t>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆい、ゆい、たいち、りょうすけ、りょうすけ、たいち、ゆい、りょうすけ、りく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なゆた、りょうすけ、たいち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわしん杯決勝トーナメント</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいち、りょうすけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りょうすけ、りく、りく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわしん杯決勝トーナメント
+★結果：ベスト16</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野島ホワイト</t>
+    <rPh sb="0" eb="3">
+      <t>ナカノシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三田SC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわしん杯決勝トーナメント
+★結果：ベスト8</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーシモンホワイト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -738,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +843,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -772,32 +871,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36253B44-88AB-445C-94E0-9A8ACDEE4FBB}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1146,11 +1221,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1159,10 +1234,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
+      <c r="A2" s="11">
         <v>44016</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1189,8 +1264,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1215,8 +1290,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1316,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1265,8 +1340,8 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1291,8 +1366,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1317,8 +1392,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1343,8 +1418,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1367,10 +1442,10 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>44023</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1397,8 +1472,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1423,8 +1498,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1449,8 +1524,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1473,8 +1548,8 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1499,8 +1574,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1525,8 +1600,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1551,8 +1626,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1575,10 +1650,10 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="8">
+      <c r="A18" s="11">
         <v>44035</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1605,8 +1680,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1631,8 +1706,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1657,8 +1732,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1683,8 +1758,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1707,10 +1782,10 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="8">
+      <c r="A23" s="11">
         <v>44036</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1737,8 +1812,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1763,10 +1838,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <v>44036</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1793,8 +1868,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1819,8 +1894,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
@@ -1845,8 +1920,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
@@ -1869,8 +1944,8 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
@@ -1893,8 +1968,8 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
@@ -1919,10 +1994,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="8">
+      <c r="A31" s="11">
         <v>44045</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1947,8 +2022,8 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1973,8 +2048,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
@@ -1999,8 +2074,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
@@ -2023,8 +2098,8 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
@@ -2049,8 +2124,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2075,8 +2150,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
         <v>11</v>
       </c>
@@ -2101,8 +2176,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
@@ -2127,15 +2202,15 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="8">
+      <c r="A39" s="11">
         <v>44047</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2153,11 +2228,11 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2175,11 +2250,11 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -2197,11 +2272,11 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E42" s="4">
         <v>4</v>
@@ -2219,11 +2294,11 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -2241,11 +2316,11 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -2263,11 +2338,11 @@
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -2285,11 +2360,11 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -2307,17 +2382,17 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="8">
+      <c r="A47" s="11">
         <v>44058</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
@@ -2335,13 +2410,13 @@
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -2359,13 +2434,13 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -2383,13 +2458,13 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E50" s="4">
         <v>1</v>
@@ -2407,13 +2482,13 @@
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -2431,13 +2506,13 @@
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -2455,17 +2530,17 @@
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" s="8">
+      <c r="A53" s="11">
         <v>44058</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -2483,13 +2558,13 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -2507,13 +2582,13 @@
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -2531,13 +2606,13 @@
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" s="9"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -2555,13 +2630,13 @@
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -2579,17 +2654,17 @@
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="8">
+      <c r="A58" s="11">
         <v>44059</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>68</v>
+      <c r="B58" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E58" s="4">
         <v>7</v>
@@ -2605,17 +2680,17 @@
         <v>〇</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -2635,13 +2710,13 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E60" s="4">
         <v>4</v>
@@ -2657,21 +2732,21 @@
         <v>〇</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="8">
+      <c r="A61" s="11">
         <v>44072</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -2689,13 +2764,13 @@
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -2713,13 +2788,13 @@
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -2737,13 +2812,13 @@
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" s="10"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -2761,17 +2836,17 @@
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="8">
+      <c r="A65" s="11">
         <v>44079</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -2791,13 +2866,13 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E66" s="4">
         <v>3</v>
@@ -2813,17 +2888,17 @@
         <v>〇</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -2841,13 +2916,13 @@
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="10"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E68" s="4">
         <v>2</v>
@@ -2863,21 +2938,21 @@
         <v>〇</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="8">
+      <c r="A69" s="11">
         <v>44080</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -2897,13 +2972,13 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -2921,13 +2996,13 @@
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="9"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -2943,17 +3018,17 @@
         <v>△</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="10"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -2969,19 +3044,19 @@
         <v>〇</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="8">
+      <c r="A73" s="11">
         <v>44086</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -2999,11 +3074,11 @@
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -3021,11 +3096,11 @@
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -3043,11 +3118,11 @@
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="9"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E76" s="4">
         <v>3</v>
@@ -3063,15 +3138,15 @@
         <v>〇</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
@@ -3089,11 +3164,11 @@
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="10"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -3111,17 +3186,17 @@
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="8">
+      <c r="A79" s="11">
         <v>44087</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>81</v>
+      <c r="B79" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -3139,8 +3214,8 @@
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="3" t="s">
         <v>9</v>
       </c>
@@ -3163,13 +3238,13 @@
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E81" s="4">
         <v>1</v>
@@ -3185,17 +3260,17 @@
         <v>△</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -3213,13 +3288,13 @@
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -3237,13 +3312,13 @@
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="10"/>
-      <c r="B84" s="13"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -3261,17 +3336,17 @@
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="8">
+      <c r="A85" s="11">
         <v>44093</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>81</v>
+      <c r="B85" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
@@ -3289,13 +3364,13 @@
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" s="9"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -3313,13 +3388,13 @@
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" s="9"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E87" s="4">
         <v>4</v>
@@ -3335,17 +3410,17 @@
         <v>〇</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="10"/>
-      <c r="B88" s="13"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
@@ -3363,17 +3438,17 @@
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A89" s="18">
+      <c r="A89" s="6">
         <v>44100</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>87</v>
+      <c r="B89" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E89" s="4">
         <v>10</v>
@@ -3389,21 +3464,21 @@
         <v>〇</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A90" s="18">
+      <c r="A90" s="6">
         <v>44101</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>87</v>
+      <c r="B90" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E90" s="4">
         <v>6</v>
@@ -3419,21 +3494,21 @@
         <v>〇</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" s="8">
+      <c r="A91" s="11">
         <v>44107</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -3451,13 +3526,13 @@
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" s="9"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E92" s="4">
         <v>1</v>
@@ -3473,17 +3548,17 @@
         <v>●</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" s="9"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E93" s="4">
         <v>2</v>
@@ -3499,17 +3574,17 @@
         <v>〇</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" s="9"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E94" s="4">
         <v>5</v>
@@ -3525,17 +3600,17 @@
         <v>〇</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" s="9"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E95" s="4">
         <v>1</v>
@@ -3551,17 +3626,17 @@
         <v>●</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="9"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
@@ -3579,13 +3654,13 @@
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" s="9"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97" s="4">
         <v>2</v>
@@ -3601,17 +3676,17 @@
         <v>〇</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" s="10"/>
-      <c r="B98" s="7"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E98" s="4">
         <v>1</v>
@@ -3627,21 +3702,21 @@
         <v>〇</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" s="8">
+      <c r="A99" s="11">
         <v>44107</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E99" s="4">
         <v>1</v>
@@ -3657,17 +3732,17 @@
         <v>●</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -3685,13 +3760,13 @@
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E101" s="4">
         <v>0</v>
@@ -3709,13 +3784,13 @@
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E102" s="4">
         <v>0</v>
@@ -3733,13 +3808,13 @@
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
@@ -3756,56 +3831,385 @@
       </c>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="4"/>
+    <row r="104" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A104" s="11">
+        <v>44115</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" s="4">
+        <v>5</v>
+      </c>
       <c r="F104" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
       <c r="H104" s="4" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="4"/>
+        <v>〇</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" s="4">
+        <v>11</v>
+      </c>
       <c r="F105" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
       <c r="H105" s="4" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I105" s="3"/>
+        <v>〇</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="4"/>
+      <c r="A106" s="6">
+        <v>44121</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
       <c r="F106" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
       <c r="H106" s="4" t="str">
         <f t="shared" si="7"/>
+        <v>〇</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A107" s="11">
+        <v>44129</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="4">
+        <v>9</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="H107" s="4" t="str">
+        <f t="shared" ref="H107:H118" si="8">IF(E107="","",IF(E107&gt;G107,"〇",IF(E107&lt;G107,"●","△")))</f>
+        <v>〇</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" s="13"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="4">
+        <v>3</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>〇</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A109" s="6">
+        <v>44136</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="4">
+        <v>9</v>
+      </c>
+      <c r="H109" s="4" t="str">
+        <f t="shared" ref="H109" si="9">IF(E109="","",IF(E109&gt;G109,"〇",IF(E109&lt;G109,"●","△")))</f>
+        <v>●</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="11">
+        <v>44138</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>〇</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="13"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="4">
+        <v>3</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>〇</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A112" s="6">
+        <v>44143</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="4">
+        <v>3</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>●</v>
+      </c>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I106" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I118" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="43">
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B91:B98"/>
     <mergeCell ref="A91:A98"/>
     <mergeCell ref="A99:A103"/>
@@ -3816,33 +4220,12 @@
     <mergeCell ref="A79:A84"/>
     <mergeCell ref="A85:A88"/>
     <mergeCell ref="B85:B88"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B69:B72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
